--- a/LABORATORIO/PlantillaJavi.xlsx
+++ b/LABORATORIO/PlantillaJavi.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Javier\Desktop\INFORMATICA\GESTIÓN DE PROYECTOS\l\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alberto\OneDrive\Documentos\GitHub\Gestion-de-Proyectos\LABORATORIO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EA644FF-BD69-48AA-80DA-E47CBCFA54C1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="6_{D0BA30B7-C7FC-4E1D-81D8-CAD364E1583D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{3984FA5B-075C-4082-BA29-BD9987626E8A}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="0" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3240" yWindow="1305" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -592,8 +592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="D4:N52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D17" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView tabSelected="1" topLeftCell="D22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -602,10 +602,10 @@
     <col min="3" max="3" width="16.42578125" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
     <col min="5" max="5" width="15.7109375" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" customWidth="1"/>
     <col min="7" max="7" width="14.5703125" customWidth="1"/>
-    <col min="8" max="8" width="18.42578125" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" customWidth="1"/>
     <col min="10" max="10" width="17.42578125" customWidth="1"/>
     <col min="11" max="11" width="17.7109375" customWidth="1"/>
     <col min="12" max="12" width="17.85546875" customWidth="1"/>
